--- a/processing/model_performance.xlsx
+++ b/processing/model_performance.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>37</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>26</v>
